--- a/doc/Reste_a_Faire.xlsx
+++ b/doc/Reste_a_Faire.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Action à réaliser</t>
   </si>
@@ -84,15 +84,23 @@
     </r>
   </si>
   <si>
+    <t>Déjà réalisé</t>
+  </si>
+  <si>
+    <t>https://github.com/DanielLEVY25021961/squelette_Web_Spring_JPA_Hibernate.git</t>
+  </si>
+  <si>
+    <t>Lien GITHUB</t>
+  </si>
+  <si>
+    <t>L'architecture cible retenue pour la modernisation de TraficWeb WEB est une architecture SOA n-tiers respectant [Vues + Controllers + Modele [Services + Metier + Daos]] et un archétype Maven.
+En outre, nous avons choisi un découpage en MODULES. Il sera plus facile d'associer les modules entre eux si l'on respecte dès le départ un même squelette.
+Par ailleurs, un POM Maven_3.5.0 déjà prêt à réaliser un WAR et contenant toutes les bonnes dépendances pour Cerbere-4.5.0, Spring_5.0.1, Servlet_3.0.1, JPA2.1, Hibernate_5.2.11, ... permettra de réaliser un important gain de temps.</t>
+  </si>
+  <si>
     <t>L'architecture cible retenue pour la modernisation de TraficWeb STANDALONE est une architecture SOA n-tiers respectant [Vues + Controllers + Modele [Services + Metier + Daos]] et un archétype Maven.
-En outre, nous avons choisi un découpage en MODULES. Il sera plus facile d'associer les modules entre eux si l'on respecte dès le départ un même squelette.</t>
-  </si>
-  <si>
-    <t>L'architecture cible retenue pour la modernisation de TraficWeb WEB est une architecture SOA n-tiers respectant [Vues + Controllers + Modele [Services + Metier + Daos]] et un archétype Maven.
-En outre, nous avons choisi un découpage en MODULES. Il sera plus facile d'associer les modules entre eux si l'on respecte dès le départ un même squelette.</t>
-  </si>
-  <si>
-    <t>Déjà réalisé</t>
+En outre, nous avons choisi un découpage en MODULES. Il sera plus facile d'associer les modules entre eux si l'on respecte dès le départ un même squelette.
+Par ailleurs, un POM Maven_3.5.0 déjà prêt à réaliser un JAR et contenant toutes les bonnes dépendances pour Spring_5.0.1,  JPA2.1, Hibernate_5.2.11, ... permettra de réaliser un important gain de temps.</t>
   </si>
 </sst>
 </file>
@@ -116,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,10 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,10 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,31 +458,37 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Reste_a_Faire.xlsx
+++ b/doc/Reste_a_Faire.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\eclipseworkspace_neon\traficweb_maven\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro-Actions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Action à réaliser</t>
   </si>
@@ -102,11 +102,59 @@
 En outre, nous avons choisi un découpage en MODULES. Il sera plus facile d'associer les modules entre eux si l'on respecte dès le départ un même squelette.
 Par ailleurs, un POM Maven_3.5.0 déjà prêt à réaliser un JAR et contenant toutes les bonnes dépendances pour Spring_5.0.1,  JPA2.1, Hibernate_5.2.11, ... permettra de réaliser un important gain de temps.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Injecter les classes de contrôle des fichiers entrants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injecter les classes de contrôle d'encodage fichiers entrants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injecter les classes de contrôle métier sur les fichiers entrants </t>
+  </si>
+  <si>
+    <t>Cererma</t>
+  </si>
+  <si>
+    <t>Clemsessy</t>
+  </si>
+  <si>
+    <t>Injecter les classes de localisation dans le module localisation</t>
+  </si>
+  <si>
+    <t>Injecter les classes de Sections de Trafic</t>
+  </si>
+  <si>
+    <t>Injecter les classes d'imports du fichier (création des objets métier)</t>
+  </si>
+  <si>
+    <t>Transformer les classes de fabrication du XML pour appel du Web Service (JAXB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injecter le client du Web Service </t>
+  </si>
+  <si>
+    <t>Voir si AspectJ peut alléger les classes devant émettre des rapports (tutoriel)</t>
+  </si>
+  <si>
+    <t>Injecter les classes de lecture du résultat du croisement des données (enrichissement) du Web Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injecter les classes de lecture de la réponse du Web Service </t>
+  </si>
+  <si>
+    <t>Réaliser les classes de mise en base des lots de section de trafic</t>
+  </si>
+  <si>
+    <t>Injecter les classes d'élaboration de  l'Histonat (pour import dans ISIDOR)</t>
+  </si>
+  <si>
+    <t>Réaliser les vues</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,13 +198,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,14 +488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +509,7 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,8 +522,14 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,12 +540,184 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f>SUM(G4:G22)</f>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Reste_a_Faire.xlsx
+++ b/doc/Reste_a_Faire.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\eclipseworkspace_neon\traficweb_maven\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Macro-Actions" sheetId="1" r:id="rId1"/>
+    <sheet name="Chiffrage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Action à réaliser</t>
   </si>
@@ -150,11 +151,65 @@
   <si>
     <t>Réaliser les vues</t>
   </si>
+  <si>
+    <t>Chef de projet</t>
+  </si>
+  <si>
+    <t>Developpeur</t>
+  </si>
+  <si>
+    <t>Expert Java et BDD</t>
+  </si>
+  <si>
+    <t>UE 5 : modification simple</t>
+  </si>
+  <si>
+    <t>Coût HT</t>
+  </si>
+  <si>
+    <t>Coût TTC</t>
+  </si>
+  <si>
+    <t>UE 9 : étude, audit, expertise</t>
+  </si>
+  <si>
+    <t>Taux de TVA (%)</t>
+  </si>
+  <si>
+    <t>Nombre d'Unité d'Œuvre</t>
+  </si>
+  <si>
+    <t>UE</t>
+  </si>
+  <si>
+    <t>Nbre de jours de Chef de Projet</t>
+  </si>
+  <si>
+    <t>Nbre de jours de Developpeur</t>
+  </si>
+  <si>
+    <t>Nbre de jours d'expert Java et BDD</t>
+  </si>
+  <si>
+    <t>Côut HT Total</t>
+  </si>
+  <si>
+    <t>Coût TTC Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAUX : </t>
+  </si>
+  <si>
+    <t>Nbre jours Total (tous métiers confondus) :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -194,11 +249,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -207,6 +361,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,10 +711,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -724,4 +947,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>320</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="9">
+        <f>F5*(1+G5)</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1394</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="9">
+        <f>F6*(1+G6)</f>
+        <v>1672.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8">
+        <f>C5*A9</f>
+        <v>7.5</v>
+      </c>
+      <c r="D9" s="8">
+        <f>D5*A9</f>
+        <v>15</v>
+      </c>
+      <c r="E9" s="8">
+        <f>E5*A9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <f>F5*A9</f>
+        <v>9600</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="9">
+        <f>H5*A9</f>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16">
+        <f>C6*A10</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D10" s="16">
+        <f>D6*A10</f>
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="16">
+        <f>E6*A10</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F10" s="17">
+        <f>F6*A10</f>
+        <v>4182</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="17">
+        <f>H6*A10</f>
+        <v>5018.3999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" ref="C11:E11" si="0">SUM(C9:C10)</f>
+        <v>8.4</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F11" s="21">
+        <f>SUM(F9:F10)</f>
+        <v>13782</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="23">
+        <f>SUM(H9:H10)</f>
+        <v>16538.400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="26">
+        <f>SUM(C11:E11)</f>
+        <v>29.099999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>